--- a/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
+++ b/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - Universidad Nacional de Colombia\Escritorio\Semestre 16\APM\Proyecto\STEELO\Proyecto 70%\Planta Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76547CA1-8267-4493-B980-D0E632B217B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34A73A-EC43-4F0F-9F57-74EB05D57E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,6 +796,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,33 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,6 +832,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -857,6 +848,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,18 +1176,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1380,18 +1380,18 @@
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1582,18 +1582,18 @@
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:3" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -1784,25 +1784,25 @@
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:3" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -1994,25 +1994,25 @@
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
     </row>
     <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -2204,25 +2204,25 @@
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="24"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="27"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="36"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -2413,25 +2413,25 @@
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="32"/>
-      <c r="C131" s="33"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="24"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="27"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="36"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="24"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="27"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -2623,25 +2623,25 @@
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="32"/>
-      <c r="C153" s="33"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="24"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="27"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="22" t="s">
+      <c r="A155" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="23"/>
-      <c r="C155" s="24"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="27"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -2833,25 +2833,25 @@
     </row>
     <row r="174" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:3" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="32"/>
-      <c r="C175" s="33"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="24"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="40" t="s">
+      <c r="A176" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B176" s="41"/>
-      <c r="C176" s="42"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="39"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="22" t="s">
+      <c r="A177" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="24"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -3043,6 +3043,14 @@
     <row r="196" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A87:C87"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A131:C131"/>
@@ -3059,14 +3067,6 @@
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A44" r:id="rId1" location=":~:text=After%20the%20new%20machine%20is,fuel%20tank%20should%20be%20cleaned.&amp;text=The%20system%20oil%20temperature%20should,not%20exceed%2070%20%C2%B0C." xr:uid="{60422AFF-22B2-403F-97A6-7C111BF5F0D1}"/>
@@ -3088,7 +3088,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D20" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3104,7 @@
       <c r="C1" s="44"/>
       <c r="D1" s="46">
         <f>D3*D11*D20</f>
-        <v>0.30281249999999998</v>
+        <v>0.136265625</v>
       </c>
       <c r="E1" s="44"/>
     </row>
@@ -3262,7 +3262,7 @@
       <c r="C11" s="44"/>
       <c r="D11" s="49">
         <f>E15*E18</f>
-        <v>0.375</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -3340,8 +3340,8 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="20">
-        <f>MIN((2+2+Falla!B18+Falla!B19+Falla!B21*8+Falla!B39+Falla!B40+Falla!B42*8+Falla!B60+Falla!B61+Falla!B63*8+Falla!B82+Falla!B83+Falla!B85*8+Falla!B104+Falla!B105+Falla!B107*8+Falla!B126+Falla!B127+Falla!B129*8+Falla!B148+Falla!B149+Falla!B151*8+Falla!B170+Falla!B171+Falla!B173*8+Falla!B192+Falla!B193+Falla!B195*8)/8,MAX(Falla!B17,Falla!B38,Falla!B59,Falla!B81,Falla!B103,Falla!B147,Falla!B169,Falla!B191))*60</f>
-        <v>900</v>
+        <f>MIN((2+2+Falla!B18+Falla!B19+Falla!B21*8+Falla!B39+Falla!B40+Falla!B42*8+Falla!B60+Falla!B61+Falla!B63*8+Falla!B82+Falla!B83+Falla!B85*8+Falla!B104+Falla!B105+Falla!B107*8+Falla!B126+Falla!B127+Falla!B129*8+Falla!B148+Falla!B149+Falla!B151*8+Falla!B170+Falla!B171+Falla!B173*8+Falla!B192+Falla!B193+Falla!B195*8)/8,MAX(Falla!B17,Falla!B38,Falla!B59,Falla!B81,Falla!B103,Falla!B147,Falla!B169,Falla!B191))*0+54/8*60</f>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3375,7 +3375,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="21">
         <f>E16/E17</f>
-        <v>0.375</v>
+        <v>0.16875000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
+++ b/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - Universidad Nacional de Colombia\Escritorio\Semestre 16\APM\Proyecto\STEELO\Proyecto 70%\Planta Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34A73A-EC43-4F0F-9F57-74EB05D57E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC784677-A905-43BA-8774-559C77D7AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Falla" sheetId="1" r:id="rId1"/>
     <sheet name="KPIs" sheetId="2" r:id="rId2"/>
+    <sheet name="Plant Simulation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="88">
   <si>
     <t>Jornada</t>
   </si>
@@ -307,16 +308,50 @@
   <si>
     <t>Calidad/Inventario</t>
   </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Portion</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>CorteCNC</t>
+  </si>
+  <si>
+    <t>Doblado</t>
+  </si>
+  <si>
+    <t>Horno</t>
+  </si>
+  <si>
+    <t>Pintado</t>
+  </si>
+  <si>
+    <t>CalidadInventario</t>
+  </si>
+  <si>
+    <t>Failed Time</t>
+  </si>
+  <si>
+    <t>Horas mes</t>
+  </si>
+  <si>
+    <t>Piezas mes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +387,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +414,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -765,13 +819,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF464646"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF464646"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF464646"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF464646"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF464646"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF464646"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -796,6 +949,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -804,15 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,15 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -848,15 +1010,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +1032,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1163,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,18 +1350,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1380,18 +1554,18 @@
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1582,18 +1756,18 @@
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:3" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -1741,7 +1915,7 @@
         <v>71</v>
       </c>
       <c r="B59" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>75</v>
@@ -1784,25 +1958,25 @@
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:3" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -1994,25 +2168,25 @@
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="33"/>
     </row>
     <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="36"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -2204,25 +2378,25 @@
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="24"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="33"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="36"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="27"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="27"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="24"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -2413,25 +2587,25 @@
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="24"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="33"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="27"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="27"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="24"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -2623,25 +2797,25 @@
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="24"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="33"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="27"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="26"/>
-      <c r="C155" s="27"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="24"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -2833,25 +3007,25 @@
     </row>
     <row r="174" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:3" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="22" t="s">
+      <c r="A175" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="23"/>
-      <c r="C175" s="24"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="33"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B176" s="38"/>
-      <c r="C176" s="39"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="42"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="27"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="24"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -3043,14 +3217,6 @@
     <row r="196" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A87:C87"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A131:C131"/>
@@ -3067,6 +3233,14 @@
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A44" r:id="rId1" location=":~:text=After%20the%20new%20machine%20is,fuel%20tank%20should%20be%20cleaned.&amp;text=The%20system%20oil%20temperature%20should,not%20exceed%2070%20%C2%B0C." xr:uid="{60422AFF-22B2-403F-97A6-7C111BF5F0D1}"/>
@@ -3085,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C3A3D7-0B25-4D19-96A3-8CC1F6FCF3A9}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:E20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,7 +3270,7 @@
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>48</v>
       </c>
@@ -3104,18 +3278,18 @@
       <c r="C1" s="44"/>
       <c r="D1" s="46">
         <f>D3*D11*D20</f>
-        <v>0.136265625</v>
+        <v>0.43909148437500006</v>
       </c>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>49</v>
       </c>
@@ -3123,11 +3297,11 @@
       <c r="C3" s="44"/>
       <c r="D3" s="47">
         <f>E9/E7</f>
-        <v>0.85</v>
+        <v>0.56625000000000003</v>
       </c>
       <c r="E3" s="44"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>50</v>
@@ -3142,28 +3316,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="18">
-        <f>5.5*4*12</f>
-        <v>264</v>
+        <f>5*4*12</f>
+        <v>240</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" ref="C5" si="0">B5*24</f>
-        <v>6336</v>
+        <v>5760</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:E5" si="1">C5*60</f>
-        <v>380160</v>
+        <v>345600</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="1"/>
-        <v>22809600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20736000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
@@ -3173,88 +3347,88 @@
       </c>
       <c r="C6" s="18">
         <f>C5-C7</f>
-        <v>3696</v>
+        <v>3360</v>
       </c>
       <c r="D6" s="18">
         <f>D5-D7</f>
-        <v>221760</v>
+        <v>201600</v>
       </c>
       <c r="E6" s="18">
         <f>E5-E7</f>
-        <v>13305600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12096000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="19">
-        <f>5.5*4*12</f>
-        <v>264</v>
+        <f>5*4*12</f>
+        <v>240</v>
       </c>
       <c r="C7" s="18">
         <f>B7*10</f>
-        <v>2640</v>
+        <v>2400</v>
       </c>
       <c r="D7" s="19">
         <f>C7*60</f>
-        <v>158400</v>
+        <v>144000</v>
       </c>
       <c r="E7" s="19">
         <f>D7*60</f>
-        <v>9504000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8640000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="18">
-        <f>B7*0.15</f>
-        <v>39.6</v>
-      </c>
-      <c r="C8" s="18">
-        <f>B8*10</f>
-        <v>396</v>
+      <c r="B8" s="19">
+        <f>C8/10</f>
+        <v>104.1</v>
+      </c>
+      <c r="C8" s="19">
+        <f>'Plant Simulation'!C11+0.1*C7</f>
+        <v>1041</v>
       </c>
       <c r="D8" s="18">
         <f>C8*60</f>
-        <v>23760</v>
+        <v>62460</v>
       </c>
       <c r="E8" s="18">
         <f>D8*60</f>
-        <v>1425600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3747600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="19">
         <f t="shared" ref="B9:D9" si="2">B7-B8</f>
-        <v>224.4</v>
+        <v>135.9</v>
       </c>
       <c r="C9" s="19">
         <f t="shared" si="2"/>
-        <v>2244</v>
+        <v>1359</v>
       </c>
       <c r="D9" s="19">
         <f t="shared" si="2"/>
-        <v>134640</v>
+        <v>81540</v>
       </c>
       <c r="E9" s="19">
         <f>E7-E8</f>
-        <v>8078400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4892400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>59</v>
       </c>
@@ -3262,11 +3436,11 @@
       <c r="C11" s="44"/>
       <c r="D11" s="49">
         <f>E15*E18</f>
-        <v>0.16875000000000001</v>
+        <v>0.81625000000000014</v>
       </c>
       <c r="E11" s="50"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>60</v>
       </c>
@@ -3274,44 +3448,57 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="20">
-        <f>15*B5*D3</f>
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>G14*12</f>
+        <v>7836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="20">
-        <f>(10*60*60)/15</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="57">
+        <f>(10*60*60)/(653/20)</f>
+        <v>1102.6033690658501</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="59">
+        <f>10*5*4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="18">
         <f t="shared" ref="B14:E14" si="3">B9</f>
-        <v>224.4</v>
+        <v>135.9</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" si="3"/>
-        <v>2244</v>
+        <v>1359</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="3"/>
-        <v>134640</v>
-      </c>
-      <c r="E14" s="20">
-        <f t="shared" si="3"/>
-        <v>8078400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81540</v>
+      </c>
+      <c r="E14" s="57">
+        <f>E7</f>
+        <v>8640000</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="61">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>63</v>
       </c>
@@ -3329,10 +3516,10 @@
       </c>
       <c r="E15" s="21">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>64</v>
       </c>
@@ -3340,8 +3527,8 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="20">
-        <f>MIN((2+2+Falla!B18+Falla!B19+Falla!B21*8+Falla!B39+Falla!B40+Falla!B42*8+Falla!B60+Falla!B61+Falla!B63*8+Falla!B82+Falla!B83+Falla!B85*8+Falla!B104+Falla!B105+Falla!B107*8+Falla!B126+Falla!B127+Falla!B129*8+Falla!B148+Falla!B149+Falla!B151*8+Falla!B170+Falla!B171+Falla!B173*8+Falla!B192+Falla!B193+Falla!B195*8)/8,MAX(Falla!B17,Falla!B38,Falla!B59,Falla!B81,Falla!B103,Falla!B147,Falla!B169,Falla!B191))*0+54/8*60</f>
-        <v>405</v>
+        <f>MIN((2+2+Falla!B18+Falla!B19+Falla!B21*8+Falla!B39+Falla!B40+Falla!B42*8+Falla!B60+Falla!B61+Falla!B63*8+Falla!B82+Falla!B83+Falla!B85*8+Falla!B104+Falla!B105+Falla!B107*8+Falla!B126+Falla!B127+Falla!B129*8+Falla!B148+Falla!B149+Falla!B151*8+Falla!B170+Falla!B171+Falla!B173*8+Falla!B192+Falla!B193+Falla!B195*8)/8,MAX(Falla!B17,Falla!B38,Falla!B59,Falla!B81,Falla!B103,Falla!B147,Falla!B169,Falla!B191))*60</f>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3363,7 +3550,7 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" si="5"/>
-        <v>2400</v>
+        <v>1102.6033690658501</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3375,7 +3562,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="21">
         <f>E16/E17</f>
-        <v>0.16875000000000001</v>
+        <v>0.81624999999999992</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3412,4 +3599,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F48838-D19B-489F-8163-CED9235FB0D8}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="53">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="C2" s="55">
+        <v>0.28060185185185188</v>
+      </c>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="53">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="C3" s="55">
+        <v>0.62727767361111109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="53">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="C4" s="55">
+        <v>0.36030799768518523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="53">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="C5" s="55">
+        <v>0.36017188657407412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="53">
+        <v>0.1095</v>
+      </c>
+      <c r="C6" s="55">
+        <v>0.91281196759259264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="53">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="C7" s="55">
+        <v>0.49404015046296296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="53">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="C8" s="55">
+        <v>0.24648118055555557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="53">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="C9" s="55">
+        <v>0.48189756944444445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="53">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="C10" s="55">
+        <v>0.50544373842592594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="19">
+        <f>(6.75+3+8.75+8.75+10+6+11.5+12)*12</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
+++ b/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - Universidad Nacional de Colombia\Escritorio\Semestre 16\APM\Proyecto\STEELO\Proyecto 70%\Planta Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC784677-A905-43BA-8774-559C77D7AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB1E69-833D-4F99-9C5F-2F8E670285C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Falla" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -949,6 +949,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,33 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,6 +1006,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1010,6 +1022,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,27 +1053,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1350,18 +1350,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1554,18 +1554,18 @@
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1756,18 +1756,18 @@
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:3" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -1958,25 +1958,25 @@
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:3" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="44"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -2168,25 +2168,25 @@
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="35"/>
     </row>
     <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -2378,25 +2378,25 @@
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="33"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="35"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="27"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="38"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -2587,25 +2587,25 @@
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="32"/>
-      <c r="C131" s="33"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="35"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="27"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="47"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="24"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="38"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -2797,25 +2797,25 @@
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="32"/>
-      <c r="C153" s="33"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="35"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="27"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="47"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="22" t="s">
+      <c r="A155" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="23"/>
-      <c r="C155" s="24"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="38"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -3007,25 +3007,25 @@
     </row>
     <row r="174" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:3" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="32"/>
-      <c r="C175" s="33"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="35"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="40" t="s">
+      <c r="A176" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B176" s="41"/>
-      <c r="C176" s="42"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="50"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="22" t="s">
+      <c r="A177" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="24"/>
+      <c r="B177" s="37"/>
+      <c r="C177" s="38"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -3217,6 +3217,14 @@
     <row r="196" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A87:C87"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A131:C131"/>
@@ -3233,14 +3241,6 @@
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A44" r:id="rId1" location=":~:text=After%20the%20new%20machine%20is,fuel%20tank%20should%20be%20cleaned.&amp;text=The%20system%20oil%20temperature%20should,not%20exceed%2070%20%C2%B0C." xr:uid="{60422AFF-22B2-403F-97A6-7C111BF5F0D1}"/>
@@ -3262,7 +3262,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,16 +3271,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="46">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="57">
         <f>D3*D11*D20</f>
         <v>0.43909148437500006</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
@@ -3290,16 +3290,16 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="47">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="58">
         <f>E9/E7</f>
         <v>0.56625000000000003</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
@@ -3422,23 +3422,23 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="49">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="60">
         <f>E15*E18</f>
         <v>0.81625000000000014</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="61"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
@@ -3459,14 +3459,14 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="57">
+      <c r="E13" s="28">
         <f>(10*60*60)/(653/20)</f>
         <v>1102.6033690658501</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="30">
         <f>10*5*4</f>
         <v>200</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="18">
-        <f t="shared" ref="B14:E14" si="3">B9</f>
+        <f t="shared" ref="B14:D14" si="3">B9</f>
         <v>135.9</v>
       </c>
       <c r="C14" s="18">
@@ -3487,14 +3487,14 @@
         <f t="shared" si="3"/>
         <v>81540</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="28">
         <f>E7</f>
         <v>8640000</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="32">
         <v>653</v>
       </c>
     </row>
@@ -3573,15 +3573,15 @@
       <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45">
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56">
         <v>0.95</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3606,7 +3606,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,118 +3616,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="24">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="26">
         <v>0.28060185185185188</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="24">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="26">
         <v>0.62727767361111109</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="24">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="26">
         <v>0.36030799768518523</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="24">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="26">
         <v>0.36017188657407412</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="24">
         <v>0.1095</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="26">
         <v>0.91281196759259264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="24">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="26">
         <v>0.49404015046296296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="24">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="26">
         <v>0.24648118055555557</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="24">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="26">
         <v>0.48189756944444445</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="24">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="26">
         <v>0.50544373842592594</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="19">

--- a/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
+++ b/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - Universidad Nacional de Colombia\Escritorio\Semestre 16\APM\Proyecto\STEELO\Proyecto 70%\Planta Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CB1E69-833D-4F99-9C5F-2F8E670285C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE264E-90FD-47AB-8BFF-0388645F9884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Falla" sheetId="1" r:id="rId1"/>
@@ -970,6 +970,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -978,15 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,15 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1022,15 +1031,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,18 +1350,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1554,18 +1554,18 @@
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1756,18 +1756,18 @@
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:3" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -1958,25 +1958,25 @@
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:3" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="41"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="50"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="41"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -2168,25 +2168,25 @@
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="35"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
     </row>
     <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="46"/>
-      <c r="C88" s="47"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="38"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="35"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -2378,25 +2378,25 @@
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="35"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="44"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
+      <c r="A110" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="46"/>
-      <c r="C110" s="47"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="38"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="37"/>
-      <c r="C111" s="38"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="35"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -2587,25 +2587,25 @@
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="35"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="45" t="s">
+      <c r="A132" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B132" s="46"/>
-      <c r="C132" s="47"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="38"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="36" t="s">
+      <c r="A133" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B133" s="37"/>
-      <c r="C133" s="38"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="35"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -2797,25 +2797,25 @@
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="33" t="s">
+      <c r="A153" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="34"/>
-      <c r="C153" s="35"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="44"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="45" t="s">
+      <c r="A154" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B154" s="46"/>
-      <c r="C154" s="47"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="38"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="36" t="s">
+      <c r="A155" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="37"/>
-      <c r="C155" s="38"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="35"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -3007,25 +3007,25 @@
     </row>
     <row r="174" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:3" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="33" t="s">
+      <c r="A175" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="34"/>
-      <c r="C175" s="35"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="44"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="48" t="s">
+      <c r="A176" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B176" s="49"/>
-      <c r="C176" s="50"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="53"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="36" t="s">
+      <c r="A177" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B177" s="37"/>
-      <c r="C177" s="38"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="35"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -3217,14 +3217,6 @@
     <row r="196" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A87:C87"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A131:C131"/>
@@ -3241,6 +3233,14 @@
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A44" r:id="rId1" location=":~:text=After%20the%20new%20machine%20is,fuel%20tank%20should%20be%20cleaned.&amp;text=The%20system%20oil%20temperature%20should,not%20exceed%2070%20%C2%B0C." xr:uid="{60422AFF-22B2-403F-97A6-7C111BF5F0D1}"/>
@@ -3262,7 +3262,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3606,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
+++ b/Proyecto 70%/Planta Base/Tiempos Falla y KPI Planta Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\OneDrive - Universidad Nacional de Colombia\Escritorio\Semestre 16\APM\Proyecto\STEELO\Proyecto 70%\Planta Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE264E-90FD-47AB-8BFF-0388645F9884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307C9AB-16DD-424F-8AAD-6BD115215419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Falla" sheetId="1" r:id="rId1"/>
@@ -347,9 +347,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -970,6 +970,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,33 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,6 +1006,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1033,17 +1024,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,6 +1047,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1337,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
@@ -1350,18 +1353,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1554,18 +1557,18 @@
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:5" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1756,18 +1759,18 @@
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:3" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -1958,25 +1961,25 @@
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:3" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="48" t="s">
+      <c r="A66" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="44"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -2168,25 +2171,25 @@
     </row>
     <row r="86" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="35"/>
     </row>
     <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="38"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="35"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -2378,25 +2381,25 @@
     </row>
     <row r="108" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="43"/>
-      <c r="C109" s="44"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="35"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="37"/>
-      <c r="C110" s="38"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="34"/>
-      <c r="C111" s="35"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="38"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -2587,25 +2590,25 @@
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="131" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="44"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="35"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="38"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="47"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B133" s="34"/>
-      <c r="C133" s="35"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="38"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
@@ -2797,25 +2800,25 @@
     </row>
     <row r="152" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="42" t="s">
+      <c r="A153" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="43"/>
-      <c r="C153" s="44"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="35"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="36" t="s">
+      <c r="A154" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B154" s="37"/>
-      <c r="C154" s="38"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="47"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="33" t="s">
+      <c r="A155" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="34"/>
-      <c r="C155" s="35"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="38"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -3007,25 +3010,25 @@
     </row>
     <row r="174" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:3" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="42" t="s">
+      <c r="A175" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="43"/>
-      <c r="C175" s="44"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="35"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="51" t="s">
+      <c r="A176" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B176" s="52"/>
-      <c r="C176" s="53"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="50"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="33" t="s">
+      <c r="A177" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B177" s="34"/>
-      <c r="C177" s="35"/>
+      <c r="B177" s="37"/>
+      <c r="C177" s="38"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
@@ -3217,6 +3220,14 @@
     <row r="196" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A87:C87"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A131:C131"/>
@@ -3233,14 +3244,6 @@
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:C176"/>
     <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A44" r:id="rId1" location=":~:text=After%20the%20new%20machine%20is,fuel%20tank%20should%20be%20cleaned.&amp;text=The%20system%20oil%20temperature%20should,not%20exceed%2070%20%C2%B0C." xr:uid="{60422AFF-22B2-403F-97A6-7C111BF5F0D1}"/>
@@ -3261,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C3A3D7-0B25-4D19-96A3-8CC1F6FCF3A9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,18 +3279,18 @@
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
-      <c r="D1" s="57">
+      <c r="D1" s="60">
         <f>D3*D11*D20</f>
         <v>0.43909148437500006</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
@@ -3295,11 +3298,11 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="58">
+      <c r="D3" s="60">
         <f>E9/E7</f>
         <v>0.56625000000000003</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
@@ -3321,20 +3324,20 @@
         <v>54</v>
       </c>
       <c r="B5" s="18">
-        <f>5*4*12</f>
-        <v>240</v>
+        <f>7*4*12</f>
+        <v>336</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" ref="C5" si="0">B5*24</f>
-        <v>5760</v>
+        <v>8064</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:E5" si="1">C5*60</f>
-        <v>345600</v>
+        <v>483840</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="1"/>
-        <v>20736000</v>
+        <v>29030400</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3343,19 +3346,19 @@
       </c>
       <c r="B6" s="18">
         <f>B5-B7</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C6" s="18">
         <f>C5-C7</f>
-        <v>3360</v>
+        <v>5664</v>
       </c>
       <c r="D6" s="18">
         <f>D5-D7</f>
-        <v>201600</v>
+        <v>339840</v>
       </c>
       <c r="E6" s="18">
         <f>E5-E7</f>
-        <v>12096000</v>
+        <v>20390400</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3425,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
@@ -3434,11 +3437,11 @@
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="60">
+      <c r="D11" s="58">
         <f>E15*E18</f>
         <v>0.81625000000000014</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
@@ -3456,9 +3459,18 @@
       <c r="A13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="63">
+        <f>C13/24</f>
+        <v>1.2761613067891782E-2</v>
+      </c>
+      <c r="C13" s="64">
+        <f>D13/60</f>
+        <v>0.30627871362940279</v>
+      </c>
+      <c r="D13" s="64">
+        <f>E13/60</f>
+        <v>18.376722817764168</v>
+      </c>
       <c r="E13" s="28">
         <f>(10*60*60)/(653/20)</f>
         <v>1102.6033690658501</v>
@@ -3536,17 +3548,17 @@
         <f t="shared" ref="A17:E17" si="5">A13</f>
         <v>Tiempo de ciclo real</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="65">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
+        <v>1.2761613067891782E-2</v>
+      </c>
+      <c r="C17" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="18">
+        <v>0.30627871362940279</v>
+      </c>
+      <c r="D17" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>18.376722817764168</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="5"/>
